--- a/요구사항정의서.xlsx
+++ b/요구사항정의서.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\team2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dltmd\source\repos\GoodeeTeamProject2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25ADE5B-6A5B-4083-9DB2-5EDB897FC2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -321,16 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>웹 화면을 통해 관리자가 생산 현황을 모니터링 할 수 있도록 구현
-- 회사 정보(공정 및 제품) 조회 가능
-- 생산 데이터 분석 가능
- &gt; 생산률 조회(날짜 검색) + 제품별 구분 
- &gt; 불량 조회 
- &gt; 가동 현황
- &gt; 월별 스케쥴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정연</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -356,13 +345,24 @@
   </si>
   <si>
     <t>DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹 화면을 통해 관리자가 작업지시 분석 및 업무현황을 모니터링 할 수 있도록 구현
+- 작업지시 분석 조회 가능
+ &gt; 작업지시 실적 조회
+ &gt; 작업지시 종합 실적 조회
+- 업무현황 조회 가능
+ &gt; 품목별 수주현황 조회
+ &gt; 불량 내역 조회
+ &gt; 비가동 내역 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -881,24 +881,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.09765625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="77.59765625" customWidth="1"/>
+    <col min="3" max="3" width="77.625" customWidth="1"/>
     <col min="4" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="9.8984375" customWidth="1"/>
-    <col min="10" max="10" width="10.3984375" customWidth="1"/>
+    <col min="7" max="7" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -915,7 +915,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -930,10 +930,10 @@
       </c>
       <c r="I2" s="2"/>
       <c r="J2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -962,10 +962,10 @@
         <v>7</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -990,11 +990,11 @@
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1020,7 +1020,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1046,7 +1046,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1074,7 +1074,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1102,7 +1102,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1130,7 +1130,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1183,10 +1183,10 @@
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1214,7 +1214,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1267,10 +1267,10 @@
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -1296,7 +1296,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -1348,7 +1348,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>13</v>
       </c>
@@ -1374,7 +1374,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -1399,10 +1399,10 @@
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -1428,7 +1428,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -1454,7 +1454,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="1:10" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -1479,10 +1479,10 @@
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="121.8" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="132" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>33</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>41</v>
@@ -1507,21 +1507,21 @@
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:I23">
+  <autoFilter ref="A3:I3">
+    <sortState ref="A4:I23">
       <sortCondition ref="A3"/>
     </sortState>
   </autoFilter>
